--- a/biology/Botanique/Kidd's_Orange_Red/Kidd's_Orange_Red.xlsx
+++ b/biology/Botanique/Kidd's_Orange_Red/Kidd's_Orange_Red.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kidd%27s_Orange_Red</t>
+          <t>Kidd's_Orange_Red</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kidd's Orange Red est un cultivar de pomme. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kidd%27s_Orange_Red</t>
+          <t>Kidd's_Orange_Red</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit doit son nom à un jardinier amateur néo-zélandais, J.H. Kidd, qui créa la variété en 1924.
 Appréciant la célèbre variété anglaise Cox's Orange Pippin, il la croisa avec la Red delicious et obtint ainsi ce fruit légèrement aplati, jaune tendant vers l'orangé rouge, tacheté de marbrures de liège, ce qui lui donne un aspect rustique.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kidd%27s_Orange_Red</t>
+          <t>Kidd's_Orange_Red</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa peau est fine. Sa chair ferme et son goût plus sucré que celui de la Cox.
 Kidd's Orange Red est mûre vers la mi-octobre dans l'hémisphère Nord et se conserve jusqu'en janvier.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kidd%27s_Orange_Red</t>
+          <t>Kidd's_Orange_Red</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété est pollinisée par James Grieve, Grenadier, Calville blanc d'hiver, Esopus Spitzenburg, Fuji, Golden Delicious, Pinova, Winter Banana.
 </t>
